--- a/data/trans_camb/P15_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,15</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,26</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>15,88</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>25,13</t>
+          <t>18,36</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -0,25</t>
+          <t>-10,66; -0,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 18,3</t>
+          <t>5,05; 24,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 21,86</t>
+          <t>8,47; 22,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,92</t>
+          <t>-5,71; 0,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -2,32</t>
+          <t>5,69; 14,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,1</t>
+          <t>15,64; 24,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,57</t>
+          <t>-6,23; -0,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 31,95</t>
+          <t>7,09; 17,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -2,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 11,63</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>12,24; 19,68</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>20,52; 29,83</t>
+          <t>14,06; 22,18</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-60,24%</t>
+          <t>-77,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>182,93%</t>
+          <t>217,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>283,72%</t>
+          <t>274,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>438,95%</t>
+          <t>-77,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>458,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>903,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>260,13%</t>
+          <t>-77,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>419,31%</t>
+          <t>289,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-70,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>129,3%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>270,04%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>427,43%</t>
+          <t>466,57%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,37; 4,35</t>
+          <t>-100,0; 57,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,24; 457,65</t>
+          <t>20,84; 823,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>130,6; 576,98</t>
+          <t>54,85; 911,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>224,55; 887,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-94,24; -36,09</t>
+          <t>69,77; 1887,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 209,49</t>
+          <t>250,77; 3286,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>127,92; 479,11</t>
+          <t>-96,17; -13,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>229,02; 727,58</t>
+          <t>104,49; 781,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,75; -42,34</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>60,91; 243,87</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>171,77; 435,35</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>274,31; 624,51</t>
+          <t>188,85; 1015,32</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-9,18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17,19</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-5,28</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>31,36</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>20,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,73</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,4</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>21,91</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>31,08</t>
+          <t>19,06</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -1,95</t>
+          <t>-15,13; -3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,16</t>
+          <t>-0,61; 12,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,18; 28,01</t>
+          <t>10,83; 23,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 37,12</t>
+          <t>-9,22; -0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -2,32</t>
+          <t>7,93; 17,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,87</t>
+          <t>15,23; 24,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 24,94</t>
+          <t>-10,66; -3,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,82; 35,48</t>
+          <t>5,6; 13,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -3,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 16,09</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 25,15</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>27,4; 34,5</t>
+          <t>14,53; 22,72</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-42,86%</t>
+          <t>-49,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>112,49%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>186,25%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>254,49%</t>
+          <t>-48,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-52,87%</t>
+          <t>118,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,08%</t>
+          <t>186,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>189,88%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>280,18%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,55%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>115,35%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>188,6%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>267,51%</t>
+          <t>130,01%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,98; -16,87</t>
+          <t>-66,48; -22,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,43; 170,56</t>
+          <t>-3,93; 80,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>125,75; 261,04</t>
+          <t>46,57; 159,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>184,51; 348,14</t>
+          <t>-70,25; -11,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,45; -20,53</t>
+          <t>55,35; 208,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,54; 173,86</t>
+          <t>106,57; 307,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>131,81; 261,76</t>
+          <t>-62,38; -28,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>199,77; 374,38</t>
+          <t>34,29; 116,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,42; -29,13</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>82,09; 152,81</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>144,56; 237,19</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>212,36; 330,37</t>
+          <t>83,05; 179,73</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-9,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,43</t>
+          <t>26,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37,66</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,18</t>
+          <t>19,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,75</t>
+          <t>26,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,11</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,74</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>27,27</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>32,96</t>
+          <t>26,68</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -2,64</t>
+          <t>-15,46; -2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 22,12</t>
+          <t>6,69; 21,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,58; 33,53</t>
+          <t>18,63; 33,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,04; 46,59</t>
+          <t>-15,72; -3,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -5,8</t>
+          <t>12,05; 25,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 24,74</t>
+          <t>20,09; 33,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,32; 32,29</t>
+          <t>-13,61; -4,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 36,51</t>
+          <t>12,13; 22,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -5,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 21,25</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>22,83; 31,4</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>27,32; 39,15</t>
+          <t>21,52; 32,08</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,32%</t>
+          <t>-46,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>75,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>145,67%</t>
+          <t>134,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>200,01%</t>
+          <t>-45,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-53,46%</t>
+          <t>100,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>138,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>142,31%</t>
+          <t>-46,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>150,89%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,39%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>91,03%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>144,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>174,05%</t>
+          <t>136,76%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -14,57</t>
+          <t>-65,69; -13,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 139,19</t>
+          <t>28,27; 148,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,29; 209,32</t>
+          <t>77,65; 221,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>132,5; 286,21</t>
+          <t>-65,46; -19,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,73; -34,31</t>
+          <t>48,75; 166,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,9; 151,15</t>
+          <t>78,56; 215,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 196,39</t>
+          <t>-60,67; -26,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>102,1; 223,47</t>
+          <t>54,76; 135,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,81; -32,8</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>60,05; 127,13</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>107,74; 186,62</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>131,26; 228,49</t>
+          <t>91,23; 196,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,43</t>
+          <t>16,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,58</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>13,09</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>22,23</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>28,47</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,16</t>
+          <t>-8,56; -2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,4</t>
+          <t>11,64; 23,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,83; 33,72</t>
+          <t>-10,99; -5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -4,46</t>
+          <t>2,36; 11,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,56</t>
+          <t>-9,19; -5,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,57; 30,87</t>
+          <t>8,73; 16,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -4,62</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 15,07</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,99; 24,56</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,66; 31,1</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-43,99%</t>
+          <t>-55,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>103,0%</t>
+          <t>156,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>174,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>226,85%</t>
+          <t>-72,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-55,28%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>106,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>180,21%</t>
+          <t>-64,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>227,31%</t>
+          <t>109,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-49,54%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>104,57%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>177,54%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>227,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,55; -26,22</t>
+          <t>-71,27; -30,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,41; 142,71</t>
+          <t>99,03; 255,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>130,96; 225,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>178,18; 285,21</t>
+          <t>-83,36; -54,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,66; -40,24</t>
+          <t>18,45; 112,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,57; 142,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>143,71; 225,4</t>
+          <t>-74,65; -50,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>178,34; 280,36</t>
+          <t>70,52; 154,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,26; -39,05</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>81,25; 128,98</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>148,22; 210,84</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>189,26; 265,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,85</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12,77</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,51</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; -3,75</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 17,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 26,82</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; -4,95</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 15,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19,2; 24,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; -5,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 15,18</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20,4; 24,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-47,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>177,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-57,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>106,4%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>183,28%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-52,02%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>106,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>180,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-59,13; -31,76</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73,88; 146,33</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>135,31; 233,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-66,56; -44,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>78,5; 141,3</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>144,42; 227,53</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-59,68; -42,45</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>80,75; 129,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>149,04; 212,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
